--- a/ProyectoAgo21/DistribucionProyecto2021.xlsx
+++ b/ProyectoAgo21/DistribucionProyecto2021.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\L00614578\Documents\GitHub\Redes1\ProyectoAgo21\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3105ED8C-CC5C-4DE1-838D-C0C0B0A7875D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75BA03AD-6874-4C53-8EC6-26DAC8934C40}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A6EED8FA-9048-4549-8806-9AF43ADDB342}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{A6EED8FA-9048-4549-8806-9AF43ADDB342}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -816,15 +816,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5D540C2-DE11-4CA0-8629-81203C1F6428}">
-  <dimension ref="A1:K48"/>
+  <dimension ref="A1:K51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="D48" sqref="D48"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="3" width="28.1796875" customWidth="1"/>
+    <col min="2" max="2" width="28.1796875" customWidth="1"/>
+    <col min="3" max="3" width="3.08984375" customWidth="1"/>
     <col min="4" max="4" width="18.36328125" customWidth="1"/>
     <col min="5" max="5" width="18.7265625" customWidth="1"/>
     <col min="10" max="10" width="21.7265625" customWidth="1"/>
@@ -2164,6 +2165,12 @@
       </c>
       <c r="J48" s="7"/>
     </row>
+    <row r="51" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G51">
+        <f>284/24</f>
+        <v>11.833333333333334</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/ProyectoAgo21/DistribucionProyecto2021.xlsx
+++ b/ProyectoAgo21/DistribucionProyecto2021.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\L00614578\Documents\GitHub\Redes1\ProyectoAgo21\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75BA03AD-6874-4C53-8EC6-26DAC8934C40}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0390D6E0-50BE-4953-8E0F-5EE58AB1BF8D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{A6EED8FA-9048-4549-8806-9AF43ADDB342}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A6EED8FA-9048-4549-8806-9AF43ADDB342}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -818,8 +818,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5D540C2-DE11-4CA0-8629-81203C1F6428}">
   <dimension ref="A1:K51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
